--- a/biology/Écologie/Réensauvagement/Réensauvagement.xlsx
+++ b/biology/Écologie/Réensauvagement/Réensauvagement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9ensauvagement</t>
+          <t>Réensauvagement</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le réensauvagement peut désigner, d'une part la réimplantation d'espèces animales (le plus souvent de grande taille) disparues depuis plusieurs siècles ou millénaires, d'autre part simplement l'absence d'intervention humaine, dans une région donnée, ou encore sur une surface très limitée.
 Dans le premier cas elle se distingue de la « simple » réintroduction d'espèces car elle vise à recréer un écosystème disparu depuis longtemps (et sur lequel les données scientifiques sont assez fragmentaires malgré les progrès de la paléontologie) ; l'idée directrice est de reconstituer les écosystèmes préhistoriques au moyen de la réimplantation de formes proches (ou réputées telles) des espèces éteintes (en termes de phylogénie ou d'exigences écologiques).
 Ces projets sont financièrement et techniquement difficiles à réaliser (les grandes espèces ne peuvent être réintroduites que dans des pays où l'espace est suffisant et la pression humaine faible), ils peuvent sembler utopiques ou fantaisistes ; toutefois, certains cas (parfois involontaires) ont démontré qu'une espèce pouvait bien s'adapter à un milieu d'où elle avait disparu depuis des millénaires, qu'elle ait été introduite volontairement ou de manière fortuite (par exemple, les chevaux en Amérique du Nord, disparus au début de l'Holocène mais revenus avec succès depuis le XVIe siècle), de sorte que le projet n'est peut-être pas aussi farfelu qu'il y paraît.
-Dans le second cas où l'absence d'intervention humaine est recherchée, toutes les activités perturbatrices pour la nature sont interdites et il n’y a pas d’intervention de gestion sur le site : seules la balade sur les sentiers définis et l'observation sont autorisées. La difficulté consiste alors à s'approprier financièrement le terrain (par une association indépendante notamment) et à faire respecter les règles associées à cette protection[1].
+Dans le second cas où l'absence d'intervention humaine est recherchée, toutes les activités perturbatrices pour la nature sont interdites et il n’y a pas d’intervention de gestion sur le site : seules la balade sur les sentiers définis et l'observation sont autorisées. La difficulté consiste alors à s'approprier financièrement le terrain (par une association indépendante notamment) et à faire respecter les règles associées à cette protection.
 Le réensauvagement peut également être défini comme une renaturation à grande échelle.
 </t>
         </is>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9ensauvagement</t>
+          <t>Réensauvagement</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,13 +527,15 @@
           <t>Genèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme ré-ensauvagement (rewilding) fut créé par des membres de l'ONG Earth First ![2] Le concept fut explicité en premier par Michael Soulé et Reed Noss[3],[4]. Le ré-ensauvagement est pour eux un complément à la conservation de la biodiversité qui forment ensemble la conservation. Il doit mettre l’accent sur la restauration et la protection de grandes zones de nature sauvage et celles des grands animaux, surtout les carnivores.
-Il contient trois valeurs de base : de larges réserves, strictement protégées, comme noyaux du réseau ; la connectivité, telle que par des corridors ; les espèces clé de voûte, définies ici comme les espèces dont l’influence sur les fonctions des écosystèmes est disproportionnée à leur abondance, concept souvent réduit aux grands carnivores[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme ré-ensauvagement (rewilding) fut créé par des membres de l'ONG Earth First ! Le concept fut explicité en premier par Michael Soulé et Reed Noss,. Le ré-ensauvagement est pour eux un complément à la conservation de la biodiversité qui forment ensemble la conservation. Il doit mettre l’accent sur la restauration et la protection de grandes zones de nature sauvage et celles des grands animaux, surtout les carnivores.
+Il contient trois valeurs de base : de larges réserves, strictement protégées, comme noyaux du réseau ; la connectivité, telle que par des corridors ; les espèces clé de voûte, définies ici comme les espèces dont l’influence sur les fonctions des écosystèmes est disproportionnée à leur abondance, concept souvent réduit aux grands carnivores.
 L’insuffisance de zones sauvages dans une région n’est pour eux pas une excuse pour ignorer les grands carnivores ; chaque région doit être un lien dans un vaste réseau continental. Un plan de conservation ne peut donner un poids égal aux buts biocentriques et socio-économiques, car les premiers ne seraient jamais réalisés.
 La biologie doit toujours être le but final. Le caractère politiquement problématique de la réintroduction de grands carnivores dans des régions peuplées ne doit pas servir d’excuse pour refuser le ré-ensauvagement.
-Réensauvager avec les carnivores éliminés jadis et autres espèces clé de voûte est un moyen autant qu’une fin. Cette fin est l’obligation morale de protéger la nature sauvage et les restes de la faune et de la flore du Pléistocène non seulement pour notre plaisir mais pour leur valeur intrinsèque[3].
+Réensauvager avec les carnivores éliminés jadis et autres espèces clé de voûte est un moyen autant qu’une fin. Cette fin est l’obligation morale de protéger la nature sauvage et les restes de la faune et de la flore du Pléistocène non seulement pour notre plaisir mais pour leur valeur intrinsèque.
 </t>
         </is>
       </c>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9ensauvagement</t>
+          <t>Réensauvagement</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,14 +564,16 @@
           <t>Évolution ultérieure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La notion de réensauvagement a bénéficié des découvertes paléontologiques, et notamment de la preuve d'une extinction massive de grands animaux au début de l'Holocène (particulièrement forte dans les Amériques et en Australie mais constatée aussi sur les autres continents), qui aurait bouleversé les écosystèmes.
 Les hypothèses sont encore incertaines : une chasse excessive, un changement climatique brutal, des maladies, ou peut-être une conjonction de ces trois facteurs auraient pu occasionner cette catastrophe écologique.
 Selon certains, ces extinctions seraient suspectées d'avoir réduit la biodiversité végétale et animale tout entière, les grands animaux ayant une influence capitale par leur action sur l'écosystème.
 À l'heure où de nombreuses grandes espèces (éléphants, rhinocéros, grands félins…) qui ont survécu jusqu'ici sont de nouveau menacées d'extinction (notamment en Afrique et en Asie du Sud, où elles avaient longtemps été préservées mais sont désormais en danger du fait de la surpopulation et souvent de l'instabilité politique), l'idée est venue de réintroduire certaines d'entre elles (du moins celles qui parviendraient à s'adapter aux climats, à l'espace et à la nourriture disponible) dans des parties du monde où la présence humaine est restée faible : Ouest américain, Sibérie, Patagonie, Afrique du Sud…
-Ce projet a été proposé par le zoologue américain Josh Donlan en 2005, dans la revue Nature[6].
-Selon une étude publiée en 2018 dans la revue scientifique « Nature » par des chercheurs de l'université du Queensland (Australie), 3,3 millions de kilomètres carrés, soit la surface de l'Inde, ont perdu leur caractère sauvage entre 1993 et 2009. Les espaces sauvages ne représentent plus que 23 % de la surface terrestre (hors Antarctique) contre 85 % il y a un siècle[7].
+Ce projet a été proposé par le zoologue américain Josh Donlan en 2005, dans la revue Nature.
+Selon une étude publiée en 2018 dans la revue scientifique « Nature » par des chercheurs de l'université du Queensland (Australie), 3,3 millions de kilomètres carrés, soit la surface de l'Inde, ont perdu leur caractère sauvage entre 1993 et 2009. Les espaces sauvages ne représentent plus que 23 % de la surface terrestre (hors Antarctique) contre 85 % il y a un siècle.
 </t>
         </is>
       </c>
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9ensauvagement</t>
+          <t>Réensauvagement</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,8 +604,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aux États-Unis
-Les États-Unis sont un des pays où l'extinction des grands animaux (mammifères le plus souvent) est la mieux documentée ; c'est dans ce pays que le projet est apparu, et a partiellement été enclenché.
+          <t>Aux États-Unis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les États-Unis sont un des pays où l'extinction des grands animaux (mammifères le plus souvent) est la mieux documentée ; c'est dans ce pays que le projet est apparu, et a partiellement été enclenché.
 Plusieurs espèces ont de ce fait été réintroduites :
 le cheval : la famille des chevaux était d'origine nord-américaine, mais elle s'est éteinte de ce continent alors qu'elle se répandait en Eurasie et en Afrique. En débarquant sur le continent américain, les conquistadors réintroduisirent sans le savoir l'espèce sur un continent où elle était éteinte depuis des millénaires. Les chevaux échappés des élevages, dits mustangs, sont revenus dans les plaines et déserts du continent ; alors qu'ils sont considérés comme des nuisibles par certains, ils ont acquis une popularité certaine (notamment véhiculée par les westerns), et leur présence est encouragée dans certaines réserves ; la popularisation de l'idée du « réensauvagement » a remis ces animaux au goût du jour ;
 les chameaux et dromadaires : ces animaux sont aussi apparus en Amérique du Nord : ils ont connu le même sort que les chevaux. Ils ont localement été réintroduits, parfois dans ce cadre ;
@@ -618,8 +639,43 @@
 le bison d'Amérique.
 Le projet American Prairie Reserve vise à faire vivre des troupeaux de bisons dans un écosystème de prairie.
 En dehors de ces projets, diverses espèces de grands mammifères ont d'ores et déjà été introduits dans de grands domaines du Sud-Ouest des États-Unis. L'intérêt écologique et génétique de ces animaux, qui vivent librement n'a pour l'instant pas réellement été évalué.
-En Russie
-La Sibérie orientale accueille aussi un grand projet de réensauvagement, dit parc du Pléistocène, associé à une station scientifique et lancé par le scientifique Sergueï Zimov, son fils et d'autres scientifiques en Yakoutie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Réensauvagement</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9ensauvagement</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Projets</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En Russie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Sibérie orientale accueille aussi un grand projet de réensauvagement, dit parc du Pléistocène, associé à une station scientifique et lancé par le scientifique Sergueï Zimov, son fils et d'autres scientifiques en Yakoutie.
 Plusieurs espèces (appartenant le plus souvent à l'actuelle faune russe, mais autrefois présentes dans presque toute l'Europe et tout le nord de l'Eurasie) ont été introduites dans une réserve de 160 kilomètres carrés (soit 16 000 hectare) :
 le renne ;
 l'élan ;
@@ -627,7 +683,7 @@
 le cheval semi-sauvage yakoute ;
 le bison d'Europe ;
 le yack ;
-vache de Kalmyk (Bétail venu du Wild Field)[8].
+vache de Kalmyk (Bétail venu du Wild Field).
 D'autres introductions sont en projet :
 la saïga (en danger critique) ;
 le tigre de Sibérie (en danger critique) ;
@@ -643,21 +699,161 @@
 le chameau de Bactriane
 la vigogne ;
 le lama.
-le mammouth laineux[9] (un projet de recréation du mammouth est en cours, à partir du génome séquencé sur les cadavres congelés trouvés en Sibérie)[10].
+le mammouth laineux (un projet de recréation du mammouth est en cours, à partir du génome séquencé sur les cadavres congelés trouvés en Sibérie).
 La liste semble composite mais elle est cohérente avec l'objectif de restaurer le biome des steppes à mammouth, et certaines de ces espèces ont eu des ancêtres ou parents proches vivant dans des climats froids aux temps préhistoriques (comme le Lion des cavernes qui a longtemps côtoyé le tigre à dent de sabre, disparu un peu plus tôt). Le lion doit assurer la fonction de grand prédateur, nécessaire pour la régulation et la santé des troupeaux d'herbivores.
 Par ailleurs, les Russes ont une expérience notable en zootechnie, ils avaient réussi l'introduction de nombreux ongulés en semi-liberté dans un certain nombre de réserves, comme celle d'Askanya Nova au temps de l'Union soviétique.
-En Europe
-L'Europe ne dispose pas d'espaces sauvages de grande taille comme les deux continents précédents, mais quelques réserves, comme celles d'Oostvaardersplassen aux Pays-Bas ou de Knepp en Angleterre sont parcourues par de grands ongulés, cousins d'espèces éteintes : le Mouflon, le Bison d'Europe (qui subsiste à l'état sauvage en Pologne et en ex-URSS), l'Aurochs de Heck, le Tarpan, voire le Cheval de Przewalski.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Réensauvagement</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9ensauvagement</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Projets</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>En Europe</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Europe ne dispose pas d'espaces sauvages de grande taille comme les deux continents précédents, mais quelques réserves, comme celles d'Oostvaardersplassen aux Pays-Bas ou de Knepp en Angleterre sont parcourues par de grands ongulés, cousins d'espèces éteintes : le Mouflon, le Bison d'Europe (qui subsiste à l'état sauvage en Pologne et en ex-URSS), l'Aurochs de Heck, le Tarpan, voire le Cheval de Przewalski.
 L'on y trouve aussi des races rustiques d'animaux domestiques (bovins, moutons, porcins…) très proches des races élevées depuis le Néolithique.
 Mais il ne s'agit pas là de « reconstituer » la faune préhistorique, plutôt de permettre l'entretien de certains écosystèmes à peu de frais et sans contraintes majeures, dans des espaces depuis longtemps modifiés par l'homme (dans le cadre des civilisations agro-pastorales traditionnelles) ; toutefois, le cas du Cheval de Przewalski est un peu particulier puisqu'il s'agit d'un essai destiné à acclimater les animaux (élevés en zoo depuis des décennies) à des conditions de vie de type « sauvage » en prévision de leur réintroduction en Mongolie, Sibérie et Chine du Nord (en cours).
-En France, l'ASPAS est engagée dans la démarche de libre évolution pour permettre un réensauvagement naturel[11]. Elle a par exemple acheté en novembre 2019 un ancien terrain de chasse privé de 490 hectares à Léoncel dans la Drôme pour le rendre intégralement à la nature[7] en créant la Réserve de Vie Sauvage du Vercors.
+En France, l'ASPAS est engagée dans la démarche de libre évolution pour permettre un réensauvagement naturel. Elle a par exemple acheté en novembre 2019 un ancien terrain de chasse privé de 490 hectares à Léoncel dans la Drôme pour le rendre intégralement à la nature en créant la Réserve de Vie Sauvage du Vercors.
 À l'échelle européenne, l'organisation Rewilding Europe vise à coordonner les projets de réensauvagement dans les différents pays européens et affirme réensauvager à ce jour plusieurs milliers d'hectares voués initialement à une forte déprise agricole.
-En Amérique du Sud
-Le Brésil et l'Argentine sont de bons candidats potentiels pour accueillir une telle expérience : ils comprennent de vastes plaines, une grande diversité climatique (du climat équatorial au climat subpolaire), et… la faune de grands mammifères sauvages y est étonnamment limitée depuis l'extinction des Megatherium, Glyptodon et autres Smilodon, de telle sorte que plusieurs niches écologiques seraient a priori vacantes.
-Au Japon
-Dans les temps préhistoriques, l'île japonaise de Hokkaidō accueillait des tigres, qui ont disparu à la fin de la dernière glaciation (mais ont survécu dans l'Extrême-Orient russe, en Corée et en Chine). La réintroduction du tigre au Japon que certains envisagent s'inscrirait dans cette optique, mais aussi dans une stratégie de préservation du Tigre de Sibérie, animal menacé d'extinction, dans un environnement proche de celui qu'il occupe encore sur le continent.
-En Australie
-Avec sa faune unique au monde (composée pour l'essentiel de marsupiaux), et les effets catastrophiques des introductions, volontaires ou accidentelles, d'animaux exogènes (renard, chat, lapin, dromadaire, etc.), l'Australie ne semble pas une terre d'élection pour les opérations de « réensauvagement ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Réensauvagement</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9ensauvagement</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Projets</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>En Amérique du Sud</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Brésil et l'Argentine sont de bons candidats potentiels pour accueillir une telle expérience : ils comprennent de vastes plaines, une grande diversité climatique (du climat équatorial au climat subpolaire), et… la faune de grands mammifères sauvages y est étonnamment limitée depuis l'extinction des Megatherium, Glyptodon et autres Smilodon, de telle sorte que plusieurs niches écologiques seraient a priori vacantes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Réensauvagement</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9ensauvagement</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Projets</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Au Japon</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les temps préhistoriques, l'île japonaise de Hokkaidō accueillait des tigres, qui ont disparu à la fin de la dernière glaciation (mais ont survécu dans l'Extrême-Orient russe, en Corée et en Chine). La réintroduction du tigre au Japon que certains envisagent s'inscrirait dans cette optique, mais aussi dans une stratégie de préservation du Tigre de Sibérie, animal menacé d'extinction, dans un environnement proche de celui qu'il occupe encore sur le continent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Réensauvagement</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9ensauvagement</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Projets</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>En Australie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec sa faune unique au monde (composée pour l'essentiel de marsupiaux), et les effets catastrophiques des introductions, volontaires ou accidentelles, d'animaux exogènes (renard, chat, lapin, dromadaire, etc.), l'Australie ne semble pas une terre d'élection pour les opérations de « réensauvagement ».
 Toutefois, quelques biologistes défendent des projets de réensauvagement « à la marge », pour pallier la disparition de certaines espèces qui parcouraient jadis ce continent.
 Pour ce faire, il est nécessaire que des formes voisines existent encore sur Terre, ce qui n'est pas le cas pour beaucoup de représentants disparus de la mégafaune australienne (wombat géant, lion marsupial…).
 Une exception est le Dragon de Komodo, qui vit dans quelques îles indonésiennes.
@@ -667,67 +863,71 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>R%C3%A9ensauvagement</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%A9ensauvagement</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Réensauvagement</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9ensauvagement</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Justifications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Selon leurs promoteurs, les projets de « réensauvagement » auraient plusieurs avantages, primant sur leurs coûts ou inconvénients :
-favoriser le retour d'espèces et d'écosystèmes (voire de biome) encore florissants il y a quelques dizaines de milliers d'années, mais ayant régressé depuis, par exemple à la suite de l'extinction de grands herbivores qui contrôlaient les boisements, de carnivores qui contrôlaient les herbivores et autres proies, de grands animaux qui disséminaient des graines ou piétinaient la neige, etc.[12]
-limiter les feux de forêts[12]
+favoriser le retour d'espèces et d'écosystèmes (voire de biome) encore florissants il y a quelques dizaines de milliers d'années, mais ayant régressé depuis, par exemple à la suite de l'extinction de grands herbivores qui contrôlaient les boisements, de carnivores qui contrôlaient les herbivores et autres proies, de grands animaux qui disséminaient des graines ou piétinaient la neige, etc.
+limiter les feux de forêts
 limiter la prolifération d'animaux et de plantes envahissants (car dépourvus de prédateur et/ou de concurrence)
-limiter le réchauffement local de l'atmosphère (en restaurant une albédo 'normale')[12] ; et/ou limiter le réchauffement et la fonte du pergélisol (grâce au compactage et percement du manteau neigeux hivernal isolant)[13] ; ils ont aussi contribué à un stockage dans les sols, en amplifiant même les variations climatiques glaciaires-interglaciaires)[13],[14],[15]
+limiter le réchauffement local de l'atmosphère (en restaurant une albédo 'normale') ; et/ou limiter le réchauffement et la fonte du pergélisol (grâce au compactage et percement du manteau neigeux hivernal isolant) ; ils ont aussi contribué à un stockage dans les sols, en amplifiant même les variations climatiques glaciaires-interglaciaires)
 protéger des espèces souvent menacés ailleurs par la chasse, le braconnage, leur surexploitation, la fragmentation ou la destruction de leur habitat et/ou par le réchauffement climatique
 parfois, favoriser le développement de régions économiquement déprimées (comme le Midwest américain) via l'écotourisme</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>R%C3%A9ensauvagement</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%A9ensauvagement</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Réensauvagement</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9ensauvagement</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Limites ou controverses</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Les points suivants sont parfois cités :
 Souvent, les espèces proposées pour la réintroduction ne correspondent pas exactement aux espèces éteintes : le « réensauvagement » aboutirait à introduire des espèces disparates, qui n'ont jamais vécu ensemble, parfois exotiques ; il ne s'agirait que d'une sorte de zoo excentrique ; les espèces menacées devraient prioritairement être protégées là où elles vivent encore ; réciproquement, sauver des espèces autochtones devrait passer avant l'introduction d'animaux d'autres continents.
